--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1679686.209569668</v>
+        <v>-1681960.229697106</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7230781.01511738</v>
+        <v>7230781.015117384</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.1547235686316</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>128.2372675796482</v>
       </c>
       <c r="H2" t="n">
         <v>326.6032504631754</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.0217950910657</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>70.91951642794425</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>59.01256229854226</v>
       </c>
       <c r="T2" t="n">
-        <v>199.0618322206878</v>
+        <v>217.594058536745</v>
       </c>
       <c r="U2" t="n">
         <v>251.2451061843206</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.6710516650733</v>
       </c>
       <c r="H3" t="n">
-        <v>86.1854321446327</v>
+        <v>105.7408432413276</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.2437637269483</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.40598506653442</v>
+        <v>58.40598506653462</v>
       </c>
       <c r="S3" t="n">
-        <v>159.1924194169439</v>
+        <v>159.192419416944</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4542208317152</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8971409297816</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>118.5584922277097</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.2425425322582</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.2147226037219</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>127.4026534698837</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.95378551841834</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>83.92757720509697</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>155.2224973225649</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>33.8341118277506</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>162.1994487854633</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>191.6468735142585</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>178.0423747041632</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,13 +1190,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>81.80445351869577</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>155.2114886365809</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>105.2362592571662</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>43.60518237482227</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.21956573602804</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>15.72599233723645</v>
       </c>
     </row>
     <row r="17">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81514163764196</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>73.14010804502705</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>56.00855464855898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.34562074789858</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>233.2842546114847</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>28.87187436015466</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>194.0338686928862</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797694</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
         <v>359.9009091231189</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124556</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3560,7 +3560,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515437</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,16 +3667,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
         <v>49.37728379124555</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3977,19 +3977,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4034,13 +4034,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515427</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4198,7 +4198,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y46" t="n">
         <v>171.6095167335022</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1132.545464945031</v>
+        <v>1046.89368549065</v>
       </c>
       <c r="C2" t="n">
-        <v>763.5829480046187</v>
+        <v>677.9311685502385</v>
       </c>
       <c r="D2" t="n">
-        <v>763.5829480046187</v>
+        <v>677.9311685502385</v>
       </c>
       <c r="E2" t="n">
-        <v>377.7946954063745</v>
+        <v>677.9311685502385</v>
       </c>
       <c r="F2" t="n">
-        <v>377.7946954063745</v>
+        <v>670.985667801035</v>
       </c>
       <c r="G2" t="n">
-        <v>377.7946954063745</v>
+        <v>541.4530742862388</v>
       </c>
       <c r="H2" t="n">
-        <v>47.89242221124785</v>
+        <v>211.5508010911121</v>
       </c>
       <c r="I2" t="n">
-        <v>47.89242221124785</v>
+        <v>47.89242221124772</v>
       </c>
       <c r="J2" t="n">
-        <v>141.6681220034141</v>
+        <v>141.6681220034138</v>
       </c>
       <c r="K2" t="n">
-        <v>402.958391397123</v>
+        <v>402.9583913971221</v>
       </c>
       <c r="L2" t="n">
-        <v>779.3887029883448</v>
+        <v>779.3887029883431</v>
       </c>
       <c r="M2" t="n">
-        <v>1214.846500462598</v>
+        <v>1214.846500462595</v>
       </c>
       <c r="N2" t="n">
-        <v>1642.718462811282</v>
+        <v>1642.718462811278</v>
       </c>
       <c r="O2" t="n">
-        <v>2001.558186006104</v>
+        <v>2001.558186006099</v>
       </c>
       <c r="P2" t="n">
-        <v>2270.145204794939</v>
+        <v>2270.145204794933</v>
       </c>
       <c r="Q2" t="n">
-        <v>2394.621110562392</v>
+        <v>2394.621110562386</v>
       </c>
       <c r="R2" t="n">
-        <v>2394.621110562392</v>
+        <v>2322.985235382645</v>
       </c>
       <c r="S2" t="n">
-        <v>2394.621110562392</v>
+        <v>2263.376586596238</v>
       </c>
       <c r="T2" t="n">
-        <v>2193.548552763718</v>
+        <v>2043.584608276294</v>
       </c>
       <c r="U2" t="n">
-        <v>1939.765617224</v>
+        <v>1789.801672736576</v>
       </c>
       <c r="V2" t="n">
-        <v>1608.702729880429</v>
+        <v>1789.801672736576</v>
       </c>
       <c r="W2" t="n">
-        <v>1255.934074610315</v>
+        <v>1437.033017466462</v>
       </c>
       <c r="X2" t="n">
-        <v>1255.934074610315</v>
+        <v>1437.033017466462</v>
       </c>
       <c r="Y2" t="n">
-        <v>1255.934074610315</v>
+        <v>1046.89368549065</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>902.15943353594</v>
+        <v>988.825266691135</v>
       </c>
       <c r="C3" t="n">
-        <v>727.706404254813</v>
+        <v>814.372237410008</v>
       </c>
       <c r="D3" t="n">
-        <v>578.7719945935618</v>
+        <v>665.4378277487567</v>
       </c>
       <c r="E3" t="n">
-        <v>419.5345395881063</v>
+        <v>506.2003727433013</v>
       </c>
       <c r="F3" t="n">
-        <v>272.9999816149913</v>
+        <v>359.6658147701863</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9484142765334</v>
+        <v>221.6142474317284</v>
       </c>
       <c r="H3" t="n">
-        <v>47.89242221124785</v>
+        <v>114.8053148647309</v>
       </c>
       <c r="I3" t="n">
-        <v>47.89242221124785</v>
+        <v>47.89242221124772</v>
       </c>
       <c r="J3" t="n">
-        <v>110.0512068966016</v>
+        <v>110.0512068966012</v>
       </c>
       <c r="K3" t="n">
-        <v>342.9113135442406</v>
+        <v>342.9113135442396</v>
       </c>
       <c r="L3" t="n">
-        <v>717.4248599408274</v>
+        <v>717.4248599408259</v>
       </c>
       <c r="M3" t="n">
-        <v>1206.443725563172</v>
+        <v>1005.6556884618</v>
       </c>
       <c r="N3" t="n">
-        <v>1724.112478824949</v>
+        <v>1523.324441723576</v>
       </c>
       <c r="O3" t="n">
-        <v>1930.474537907033</v>
+        <v>1930.474537907028</v>
       </c>
       <c r="P3" t="n">
-        <v>2240.245317403394</v>
+        <v>2240.245317403389</v>
       </c>
       <c r="Q3" t="n">
-        <v>2394.621110562392</v>
+        <v>2394.621110562386</v>
       </c>
       <c r="R3" t="n">
-        <v>2335.625166050741</v>
+        <v>2335.625166050735</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.824742397263</v>
+        <v>2174.824742397256</v>
       </c>
       <c r="T3" t="n">
-        <v>1975.376034486439</v>
+        <v>2174.824742397256</v>
       </c>
       <c r="U3" t="n">
-        <v>1975.376034486439</v>
+        <v>1946.645812165154</v>
       </c>
       <c r="V3" t="n">
-        <v>1740.223926254696</v>
+        <v>1826.889759409891</v>
       </c>
       <c r="W3" t="n">
-        <v>1485.986569526495</v>
+        <v>1572.65240268169</v>
       </c>
       <c r="X3" t="n">
-        <v>1278.135069320962</v>
+        <v>1364.800902476157</v>
       </c>
       <c r="Y3" t="n">
-        <v>1070.374770556008</v>
+        <v>1157.040603711203</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.7823697091582</v>
+        <v>2105.203940525425</v>
       </c>
       <c r="C4" t="n">
-        <v>194.7823697091582</v>
+        <v>2105.203940525425</v>
       </c>
       <c r="D4" t="n">
-        <v>194.7823697091582</v>
+        <v>2105.203940525425</v>
       </c>
       <c r="E4" t="n">
-        <v>194.7823697091582</v>
+        <v>2105.203940525425</v>
       </c>
       <c r="F4" t="n">
-        <v>47.89242221124785</v>
+        <v>2105.203940525425</v>
       </c>
       <c r="G4" t="n">
-        <v>47.89242221124785</v>
+        <v>2105.203940525425</v>
       </c>
       <c r="H4" t="n">
-        <v>47.89242221124785</v>
+        <v>1946.401190420656</v>
       </c>
       <c r="I4" t="n">
-        <v>47.89242221124785</v>
+        <v>1817.711641461177</v>
       </c>
       <c r="J4" t="n">
-        <v>47.89242221124785</v>
+        <v>1817.711641461177</v>
       </c>
       <c r="K4" t="n">
-        <v>90.69073642000151</v>
+        <v>1860.509955669931</v>
       </c>
       <c r="L4" t="n">
-        <v>200.9842782663093</v>
+        <v>1970.803497516238</v>
       </c>
       <c r="M4" t="n">
-        <v>327.6624769420761</v>
+        <v>2097.481696192005</v>
       </c>
       <c r="N4" t="n">
-        <v>456.7631676148823</v>
+        <v>2226.58238686481</v>
       </c>
       <c r="O4" t="n">
-        <v>559.9922554890179</v>
+        <v>2329.811474738945</v>
       </c>
       <c r="P4" t="n">
-        <v>624.8018913124588</v>
+        <v>2394.621110562386</v>
       </c>
       <c r="Q4" t="n">
-        <v>585.4546332130463</v>
+        <v>2394.621110562386</v>
       </c>
       <c r="R4" t="n">
-        <v>585.4546332130463</v>
+        <v>2394.621110562386</v>
       </c>
       <c r="S4" t="n">
-        <v>585.4546332130463</v>
+        <v>2394.621110562386</v>
       </c>
       <c r="T4" t="n">
-        <v>585.4546332130463</v>
+        <v>2394.621110562386</v>
       </c>
       <c r="U4" t="n">
-        <v>585.4546332130463</v>
+        <v>2394.621110562386</v>
       </c>
       <c r="V4" t="n">
-        <v>585.4546332130463</v>
+        <v>2394.621110562386</v>
       </c>
       <c r="W4" t="n">
-        <v>296.0374631760857</v>
+        <v>2105.203940525425</v>
       </c>
       <c r="X4" t="n">
-        <v>296.0374631760857</v>
+        <v>2105.203940525425</v>
       </c>
       <c r="Y4" t="n">
-        <v>296.0374631760857</v>
+        <v>2105.203940525425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1461.147548391485</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1039.683096047709</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.752638628377</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1851.286880367297</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1461.147548391485</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>302.7751770479791</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>201.8560754027576</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>201.8560754027576</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>201.8560754027576</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W7" t="n">
-        <v>201.8560754027576</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>484.4236418782189</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.08070321196</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.941371236149</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>571.3497027553424</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>571.3497027553424</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>182.2302673832259</v>
       </c>
     </row>
     <row r="11">
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5078,7 +5078,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,16 +5148,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>815.0433889280878</v>
+        <v>3406.234610018498</v>
       </c>
       <c r="C13" t="n">
-        <v>646.1072060001809</v>
+        <v>3406.234610018498</v>
       </c>
       <c r="D13" t="n">
-        <v>495.9905665878451</v>
+        <v>3256.117970606162</v>
       </c>
       <c r="E13" t="n">
-        <v>348.077473005452</v>
+        <v>3108.204877023769</v>
       </c>
       <c r="F13" t="n">
-        <v>348.077473005452</v>
+        <v>2961.314929525859</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>2961.314929525859</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952191</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104706</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104706</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104706</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.576850674232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799875</v>
+        <v>4399.118398302892</v>
       </c>
       <c r="V13" t="n">
-        <v>1445.473983799875</v>
+        <v>4144.433910097006</v>
       </c>
       <c r="W13" t="n">
-        <v>1445.473983799875</v>
+        <v>3855.016740060045</v>
       </c>
       <c r="X13" t="n">
-        <v>1217.484432901858</v>
+        <v>3627.027189162028</v>
       </c>
       <c r="Y13" t="n">
-        <v>996.6918537583275</v>
+        <v>3406.234610018498</v>
       </c>
     </row>
     <row r="14">
@@ -5291,13 +5291,13 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5358,10 +5358,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>737.3554149786656</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C16" t="n">
-        <v>737.3554149786656</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D16" t="n">
-        <v>587.2387755663299</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>439.3256819839368</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>439.3256819839368</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5470,16 +5470,16 @@
         <v>1475.554715057174</v>
       </c>
       <c r="V16" t="n">
-        <v>1475.554715057174</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W16" t="n">
-        <v>1186.137545020213</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="X16" t="n">
-        <v>958.1479941221958</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="Y16" t="n">
-        <v>737.3554149786656</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551632</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,19 +5516,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2215.249704195857</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N17" t="n">
-        <v>2762.028521254639</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089898</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008795</v>
@@ -5610,34 +5610,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>974.4454116758762</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>805.5092287479694</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1859.56049475355</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1859.56049475355</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1859.56049475355</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1604.876006547663</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1604.876006547663</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>1376.886455649646</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>1156.093876506116</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5753,16 +5753,16 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1034.340101969334</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622689</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5780,16 +5780,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>243.4741280307875</v>
+        <v>728.5987256350443</v>
       </c>
       <c r="C22" t="n">
-        <v>243.4741280307875</v>
+        <v>728.5987256350443</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307875</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208122</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838516</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858343</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="Y22" t="n">
-        <v>425.1225928610272</v>
+        <v>910.247190465284</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>858.5989712662184</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>637.8063921226883</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6233,43 +6233,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2016.310259422545</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6294,7 +6294,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6303,19 +6303,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1630.872347638509</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>1341.455177601548</v>
       </c>
       <c r="X28" t="n">
-        <v>391.866433243363</v>
+        <v>1341.455177601548</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998329</v>
+        <v>1120.662598458018</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3175.513123659584</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3678.485594538921</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,25 +6540,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>270.9417306852383</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570255</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X31" t="n">
-        <v>673.3827746590082</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.5901955154781</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,25 +6777,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6841,16 +6841,16 @@
         <v>564.3616113774096</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,7 +6877,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
@@ -6914,10 +6914,10 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
         <v>1062.439973388313</v>
@@ -6929,49 +6929,49 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M35" t="n">
-        <v>2200.835586644152</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N35" t="n">
-        <v>2747.614403702934</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O35" t="n">
-        <v>3250.586874582271</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P35" t="n">
-        <v>3645.361240939449</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
@@ -7011,28 +7011,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
         <v>449.4840331913842</v>
@@ -7084,25 +7084,25 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7111,7 +7111,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.972430572251</v>
@@ -7126,19 +7126,19 @@
         <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7166,49 +7166,49 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L38" t="n">
-        <v>1375.783593239423</v>
+        <v>1388.344880790731</v>
       </c>
       <c r="M38" t="n">
-        <v>2305.516762226676</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N38" t="n">
-        <v>2852.295579285459</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164796</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D39" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F39" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572841</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.688342997847</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
         <v>549.9474938257041</v>
@@ -7327,7 +7327,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7336,7 +7336,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7360,16 +7360,16 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
         <v>1081.642828347423</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398484</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668885</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>937.3106675423223</v>
+        <v>792.1780824632694</v>
       </c>
       <c r="L41" t="n">
-        <v>1388.344880790731</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M41" t="n">
-        <v>1921.876785462656</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N41" t="n">
-        <v>2468.655602521438</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O41" t="n">
-        <v>2971.628073400775</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.983160847721</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E43" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7597,7 +7597,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644068</v>
@@ -7606,13 +7606,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
         <v>81.14691689668915</v>
@@ -7646,52 +7646,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M44" t="n">
-        <v>2200.835586644152</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N44" t="n">
-        <v>2747.614403702934</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O44" t="n">
-        <v>3250.586874582271</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P44" t="n">
-        <v>3645.361240939449</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7789,13 +7789,13 @@
         <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7804,7 +7804,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
         <v>423.2675027973144</v>
@@ -7813,7 +7813,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7843,10 +7843,10 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
         <v>908.2998821519664</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>262.888864657707</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>191.0461201844381</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>219.3344627260163</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>216.9877583263338</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9401,10 +9401,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>251.186781668399</v>
+        <v>288.047814956104</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9641,22 +9641,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>23.80814351663741</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9881,22 +9881,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>39.48321557772738</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>123.4719563470491</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>287.001785447392</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>40.02214132148688</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>336.8335818149108</v>
       </c>
       <c r="M38" t="n">
-        <v>400.2032972882109</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>167.7369666428366</v>
+        <v>190.2350110279885</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>287.001785447392</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>40.02214132148598</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>260.579118094849</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>14.04590347118614</v>
+        <v>285.8086358915379</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>60.78954900186201</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>101.1498325394985</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098626</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>66.80624252300018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.5229983365891</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>202.8586610148583</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95388369379994</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>75.47536497318531</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>162.5760987035358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.3640346411386</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24649,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>18.85338871234327</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>138.3749467384732</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,10 +24853,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>92.48912964370481</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>115183.4617484347</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="D2" t="n">
         <v>123156.2654796424</v>
       </c>
       <c r="E2" t="n">
-        <v>119124.536066095</v>
+        <v>119124.5360660949</v>
       </c>
       <c r="F2" t="n">
         <v>119124.536066095</v>
@@ -26341,19 +26341,19 @@
         <v>119124.536066095</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796423</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796423</v>
       </c>
       <c r="N2" t="n">
+        <v>123156.2654796423</v>
+      </c>
+      <c r="O2" t="n">
         <v>123156.2654796425</v>
       </c>
-      <c r="O2" t="n">
-        <v>123156.2654796424</v>
-      </c>
       <c r="P2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501884.6814771961</v>
+        <v>501884.6814771941</v>
       </c>
       <c r="C3" t="n">
-        <v>83720.3126390408</v>
+        <v>83720.31263904265</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>156634.5614629966</v>
+        <v>156634.5614629962</v>
       </c>
       <c r="K3" t="n">
-        <v>19465.25531848901</v>
+        <v>19465.25531848942</v>
       </c>
       <c r="L3" t="n">
         <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>84741.61795950531</v>
+        <v>84741.61795950528</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203100.1933923122</v>
+        <v>203100.1933923126</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,19 +26424,19 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="F4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="G4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28561.83935289572</v>
+      </c>
+      <c r="I4" t="n">
         <v>28561.83935289576</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28561.83935289574</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
         <v>28561.83935289576</v>
@@ -26445,19 +26445,19 @@
         <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
-        <v>44019.00033111481</v>
+        <v>44019.00033111483</v>
       </c>
       <c r="M4" t="n">
-        <v>64344.18042540621</v>
+        <v>64344.18042540624</v>
       </c>
       <c r="N4" t="n">
-        <v>64344.18042540616</v>
+        <v>64344.18042540624</v>
       </c>
       <c r="O4" t="n">
-        <v>64344.18042540623</v>
+        <v>64344.18042540624</v>
       </c>
       <c r="P4" t="n">
-        <v>64344.18042540622</v>
+        <v>64344.18042540627</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76841.33769237233</v>
+        <v>76841.3376923722</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26488,25 +26488,25 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>100332.6710141021</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-666642.7508134458</v>
+        <v>-666775.630875631</v>
       </c>
       <c r="C6" t="n">
-        <v>-253345.5406858411</v>
+        <v>-253345.540685843</v>
       </c>
       <c r="D6" t="n">
-        <v>-169625.2280468003</v>
+        <v>-169625.2280468004</v>
       </c>
       <c r="E6" t="n">
-        <v>-733198.235533921</v>
+        <v>-733265.4310241471</v>
       </c>
       <c r="F6" t="n">
-        <v>-5820.821540514429</v>
+        <v>-5888.01703074025</v>
       </c>
       <c r="G6" t="n">
-        <v>-5820.821540514517</v>
+        <v>-5888.017030740265</v>
       </c>
       <c r="H6" t="n">
-        <v>-5820.821540514371</v>
+        <v>-5888.017030740207</v>
       </c>
       <c r="I6" t="n">
-        <v>-5820.821540514458</v>
+        <v>-5888.017030740236</v>
       </c>
       <c r="J6" t="n">
-        <v>-162455.3830035111</v>
+        <v>-162522.5784937365</v>
       </c>
       <c r="K6" t="n">
-        <v>-25286.07685900344</v>
+        <v>-25353.27234922961</v>
       </c>
       <c r="L6" t="n">
-        <v>-58775.51516044859</v>
+        <v>-58775.51516044865</v>
       </c>
       <c r="M6" t="n">
-        <v>-115307.4745800752</v>
+        <v>-115307.4745800753</v>
       </c>
       <c r="N6" t="n">
-        <v>-30565.85662056973</v>
+        <v>-30565.85662057003</v>
       </c>
       <c r="O6" t="n">
-        <v>-30565.85662056993</v>
+        <v>-30565.85662056983</v>
       </c>
       <c r="P6" t="n">
-        <v>-30565.85662056993</v>
+        <v>-30565.8566205699</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322917</v>
+        <v>312.6374684322902</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405981</v>
+        <v>598.6552776405965</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,13 +26820,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
         <v>1014.336461208614</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322917</v>
+        <v>312.6374684322902</v>
       </c>
       <c r="C3" t="n">
-        <v>65.10619578479501</v>
+        <v>65.10619578479648</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405981</v>
+        <v>598.6552776405965</v>
       </c>
       <c r="C4" t="n">
-        <v>75.63199511395749</v>
+        <v>75.63199511395908</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405981</v>
+        <v>598.6552776405965</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395749</v>
+        <v>75.63199511395908</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.049188454059</v>
+        <v>340.0491884540588</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405981</v>
+        <v>598.6552776405965</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395749</v>
+        <v>75.63199511395908</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.0217950910655</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>70.91951642794386</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.3799638097595</v>
+        <v>121.3674015112174</v>
       </c>
       <c r="T2" t="n">
-        <v>18.5322263160572</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>19.55541109669484</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.24376372694819</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,13 +27509,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.4542208317152</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8971409297816</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>114.2420949217156</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.58943764967906</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.4272068744005</v>
       </c>
       <c r="H4" t="n">
-        <v>157.2147226037218</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.4962987703071</v>
+        <v>11.09364530042345</v>
       </c>
       <c r="J4" t="n">
-        <v>53.50046549375585</v>
+        <v>53.50046549375604</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.95378551841856</v>
       </c>
       <c r="R4" t="n">
-        <v>151.9441304121512</v>
+        <v>151.9441304121513</v>
       </c>
       <c r="S4" t="n">
-        <v>214.1915812011574</v>
+        <v>214.1915812011575</v>
       </c>
       <c r="T4" t="n">
         <v>225.5367433600327</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>281.3453145659106</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>199.4605442981181</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>133.4127092708772</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>62.83565667262093</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>191.0869681492221</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>187.2305170668444</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>63.61659450423548</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,19 +28062,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>69.82361682150338</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28485,67 +28485,67 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.885306725550132e-12</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.256834043948911</v>
+        <v>1.256834043948905</v>
       </c>
       <c r="H2" t="n">
-        <v>12.87155165259178</v>
+        <v>12.87155165259172</v>
       </c>
       <c r="I2" t="n">
-        <v>48.45409447934042</v>
+        <v>48.45409447934018</v>
       </c>
       <c r="J2" t="n">
-        <v>106.6722184376089</v>
+        <v>106.6722184376084</v>
       </c>
       <c r="K2" t="n">
-        <v>159.8740035179663</v>
+        <v>159.8740035179656</v>
       </c>
       <c r="L2" t="n">
-        <v>198.3378383904679</v>
+        <v>198.3378383904669</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6890608195443</v>
+        <v>220.6890608195432</v>
       </c>
       <c r="N2" t="n">
-        <v>224.2600405469142</v>
+        <v>224.2600405469131</v>
       </c>
       <c r="O2" t="n">
-        <v>211.7623970223972</v>
+        <v>211.7623970223962</v>
       </c>
       <c r="P2" t="n">
-        <v>180.7343065624084</v>
+        <v>180.7343065624075</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.723937363488</v>
+        <v>135.7239373634874</v>
       </c>
       <c r="R2" t="n">
-        <v>78.94960151320582</v>
+        <v>78.94960151320544</v>
       </c>
       <c r="S2" t="n">
-        <v>28.64010577648583</v>
+        <v>28.64010577648569</v>
       </c>
       <c r="T2" t="n">
-        <v>5.501791027386358</v>
+        <v>5.501791027386332</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1005467235159128</v>
+        <v>0.1005467235159123</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6724654981373822</v>
+        <v>0.672465498137379</v>
       </c>
       <c r="H3" t="n">
-        <v>6.494600995168929</v>
+        <v>6.494600995168899</v>
       </c>
       <c r="I3" t="n">
-        <v>23.15286912446689</v>
+        <v>23.15286912446678</v>
       </c>
       <c r="J3" t="n">
-        <v>63.53324252358487</v>
+        <v>63.53324252358458</v>
       </c>
       <c r="K3" t="n">
-        <v>108.5884308987895</v>
+        <v>108.588430898789</v>
       </c>
       <c r="L3" t="n">
-        <v>146.0105459881189</v>
+        <v>146.0105459881182</v>
       </c>
       <c r="M3" t="n">
-        <v>170.387420295599</v>
+        <v>170.3874202955982</v>
       </c>
       <c r="N3" t="n">
-        <v>174.8970683072308</v>
+        <v>174.89706830723</v>
       </c>
       <c r="O3" t="n">
-        <v>159.9966485853446</v>
+        <v>159.9966485853438</v>
       </c>
       <c r="P3" t="n">
-        <v>128.4114160434445</v>
+        <v>128.4114160434439</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.83963095522094</v>
+        <v>85.83963095522053</v>
       </c>
       <c r="R3" t="n">
-        <v>41.75184908610871</v>
+        <v>41.75184908610851</v>
       </c>
       <c r="S3" t="n">
-        <v>12.49075168689391</v>
+        <v>12.49075168689385</v>
       </c>
       <c r="T3" t="n">
-        <v>2.710507863106377</v>
+        <v>2.710507863106364</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04424115119324885</v>
+        <v>0.04424115119324864</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5637724840582309</v>
+        <v>0.5637724840582282</v>
       </c>
       <c r="H4" t="n">
-        <v>5.012449903717729</v>
+        <v>5.012449903717705</v>
       </c>
       <c r="I4" t="n">
-        <v>16.95417615695117</v>
+        <v>16.95417615695109</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85871462291692</v>
+        <v>39.85871462291674</v>
       </c>
       <c r="K4" t="n">
-        <v>65.50011223876535</v>
+        <v>65.50011223876504</v>
       </c>
       <c r="L4" t="n">
-        <v>83.81759276625736</v>
+        <v>83.81759276625696</v>
       </c>
       <c r="M4" t="n">
-        <v>88.37389947832794</v>
+        <v>88.37389947832753</v>
       </c>
       <c r="N4" t="n">
-        <v>86.27256567411098</v>
+        <v>86.27256567411057</v>
       </c>
       <c r="O4" t="n">
-        <v>79.6866780194307</v>
+        <v>79.68667801943033</v>
       </c>
       <c r="P4" t="n">
-        <v>68.18571934464273</v>
+        <v>68.18571934464241</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.20825773327605</v>
+        <v>47.20825773327582</v>
       </c>
       <c r="R4" t="n">
-        <v>25.34926096501827</v>
+        <v>25.34926096501815</v>
       </c>
       <c r="S4" t="n">
-        <v>9.825016835814802</v>
+        <v>9.825016835814756</v>
       </c>
       <c r="T4" t="n">
-        <v>2.408846068248804</v>
+        <v>2.408846068248793</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03075122640317627</v>
+        <v>0.03075122640317612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837924</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.72292908299642</v>
+        <v>94.72292908299592</v>
       </c>
       <c r="K2" t="n">
-        <v>263.9295650441505</v>
+        <v>263.9295650441497</v>
       </c>
       <c r="L2" t="n">
-        <v>380.232637970931</v>
+        <v>380.2326379709301</v>
       </c>
       <c r="M2" t="n">
-        <v>439.856361085104</v>
+        <v>439.856361085103</v>
       </c>
       <c r="N2" t="n">
-        <v>432.1939013623074</v>
+        <v>432.1939013623063</v>
       </c>
       <c r="O2" t="n">
-        <v>362.4643668634558</v>
+        <v>362.4643668634548</v>
       </c>
       <c r="P2" t="n">
-        <v>271.3000189786215</v>
+        <v>271.3000189786206</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.7332381489432</v>
+        <v>125.7332381489425</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.78665119732702</v>
+        <v>62.78665119732672</v>
       </c>
       <c r="K3" t="n">
-        <v>235.2122289370091</v>
+        <v>235.2122289370086</v>
       </c>
       <c r="L3" t="n">
-        <v>378.2965115117039</v>
+        <v>378.2965115117032</v>
       </c>
       <c r="M3" t="n">
-        <v>493.9584501235805</v>
+        <v>291.1422510312869</v>
       </c>
       <c r="N3" t="n">
-        <v>522.897730567451</v>
+        <v>522.8977305674503</v>
       </c>
       <c r="O3" t="n">
-        <v>208.4465243253383</v>
+        <v>411.2627234176289</v>
       </c>
       <c r="P3" t="n">
-        <v>312.8997772690515</v>
+        <v>312.8997772690508</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.9351446050485</v>
+        <v>155.9351446050481</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>43.2306204128825</v>
+        <v>43.23062041288219</v>
       </c>
       <c r="L4" t="n">
-        <v>111.4076180265735</v>
+        <v>111.4076180265731</v>
       </c>
       <c r="M4" t="n">
-        <v>127.9577764401685</v>
+        <v>127.9577764401681</v>
       </c>
       <c r="N4" t="n">
-        <v>130.4047380533396</v>
+        <v>130.4047380533391</v>
       </c>
       <c r="O4" t="n">
-        <v>104.2718059334704</v>
+        <v>104.27180593347</v>
       </c>
       <c r="P4" t="n">
-        <v>65.46427860953622</v>
+        <v>65.4642786095359</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451123</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
         <v>78.39423853789366</v>
@@ -35659,7 +35659,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35668,7 +35668,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35884,7 +35884,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -35896,10 +35896,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>727.3874636142355</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>615.7497445457057</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
@@ -36121,10 +36121,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>588.3780682237993</v>
+        <v>625.2391015115044</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302265</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908542</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004591</v>
@@ -36358,25 +36358,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>562.729259346864</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>591.7850509906386</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>522.2339425664208</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>825.9229012776185</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>290.8164461252064</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,10 +37467,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>792.4236962072428</v>
       </c>
       <c r="M38" t="n">
-        <v>939.1244131184377</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165885</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>504.9282531982371</v>
+        <v>527.4262975833889</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>825.9229012776185</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>290.8164461252055</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
